--- a/full/sliding_window_results_window_12.xlsx
+++ b/full/sliding_window_results_window_12.xlsx
@@ -468,13 +468,13 @@
         <v>38.5</v>
       </c>
       <c r="C2" t="n">
-        <v>39.30637700788665</v>
+        <v>39.16946676928468</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8063770078866526</v>
+        <v>0.6694667692846821</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6502438788482305</v>
+        <v>0.4481857551764697</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>40.1</v>
       </c>
       <c r="C3" t="n">
-        <v>40.17738662180394</v>
+        <v>40.15769264987289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07738662180393874</v>
+        <v>0.05769264987288381</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005988689234225846</v>
+        <v>0.00332844184935516</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>41.5</v>
       </c>
       <c r="C4" t="n">
-        <v>42.11256611109454</v>
+        <v>42.15638023271289</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6125661110945444</v>
+        <v>0.6563802327128911</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3752372404614937</v>
+        <v>0.4308350098962291</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>43.7</v>
       </c>
       <c r="C5" t="n">
-        <v>45.42639165236058</v>
+        <v>45.09965792125998</v>
       </c>
       <c r="D5" t="n">
-        <v>1.726391652360576</v>
+        <v>1.399657921259973</v>
       </c>
       <c r="E5" t="n">
-        <v>2.980428137340279</v>
+        <v>1.959042296545788</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>48.1</v>
       </c>
       <c r="C6" t="n">
-        <v>48.19455273067739</v>
+        <v>48.40663594703697</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09455273067738545</v>
+        <v>0.3066359470369733</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008940218878550189</v>
+        <v>0.09402560401526149</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>54.20514774255339</v>
+        <v>54.11982075777908</v>
       </c>
       <c r="D7" t="n">
-        <v>1.205147742553386</v>
+        <v>1.119820757779081</v>
       </c>
       <c r="E7" t="n">
-        <v>1.452381081381523</v>
+        <v>1.253998529552915</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>56.1</v>
       </c>
       <c r="C8" t="n">
-        <v>57.53755763743132</v>
+        <v>57.48190892923404</v>
       </c>
       <c r="D8" t="n">
-        <v>1.437557637431318</v>
+        <v>1.381908929234037</v>
       </c>
       <c r="E8" t="n">
-        <v>2.066571960937114</v>
+        <v>1.909672288696761</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>60</v>
       </c>
       <c r="C9" t="n">
-        <v>61.35746326321816</v>
+        <v>61.32290622179418</v>
       </c>
       <c r="D9" t="n">
-        <v>1.357463263218158</v>
+        <v>1.322906221794184</v>
       </c>
       <c r="E9" t="n">
-        <v>1.842706510986889</v>
+        <v>1.750080871661764</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>63.9</v>
       </c>
       <c r="C10" t="n">
-        <v>65.18477507070601</v>
+        <v>65.14685820361885</v>
       </c>
       <c r="D10" t="n">
-        <v>1.284775070706011</v>
+        <v>1.246858203618849</v>
       </c>
       <c r="E10" t="n">
-        <v>1.650646982307637</v>
+        <v>1.554655379931624</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>72.9093514247165</v>
+        <v>72.88795591575926</v>
       </c>
       <c r="D11" t="n">
-        <v>2.30935142471651</v>
+        <v>2.287955915759269</v>
       </c>
       <c r="E11" t="n">
-        <v>5.333104002840176</v>
+        <v>5.234742272457837</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>80.90000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>83.82706189903084</v>
+        <v>83.76274496735707</v>
       </c>
       <c r="D12" t="n">
-        <v>2.927061899030832</v>
+        <v>2.86274496735706</v>
       </c>
       <c r="E12" t="n">
-        <v>8.567691360757982</v>
+        <v>8.195308748128172</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>89.09999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>92.45713786597324</v>
+        <v>92.37156477976505</v>
       </c>
       <c r="D13" t="n">
-        <v>3.357137865973243</v>
+        <v>3.271564779765058</v>
       </c>
       <c r="E13" t="n">
-        <v>11.27037465115138</v>
+        <v>10.70313610819919</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>95</v>
       </c>
       <c r="C14" t="n">
-        <v>98.38340741214759</v>
+        <v>98.30487819110472</v>
       </c>
       <c r="D14" t="n">
-        <v>3.383407412147591</v>
+        <v>3.30487819110472</v>
       </c>
       <c r="E14" t="n">
-        <v>11.44744571657526</v>
+        <v>10.92221985803961</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>98.8</v>
       </c>
       <c r="C15" t="n">
-        <v>102.2469703350573</v>
+        <v>102.2246203100214</v>
       </c>
       <c r="D15" t="n">
-        <v>3.446970335057259</v>
+        <v>3.424620310021439</v>
       </c>
       <c r="E15" t="n">
-        <v>11.88160449076475</v>
+        <v>11.72802426781134</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>103.3</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7359205659335</v>
+        <v>105.6348509433937</v>
       </c>
       <c r="D16" t="n">
-        <v>2.4359205659335</v>
+        <v>2.334850943393747</v>
       </c>
       <c r="E16" t="n">
-        <v>5.933709003537785</v>
+        <v>5.451528927866669</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>107</v>
       </c>
       <c r="C17" t="n">
-        <v>109.1111682418387</v>
+        <v>109.0067018773697</v>
       </c>
       <c r="D17" t="n">
-        <v>2.111168241838726</v>
+        <v>2.006701877369721</v>
       </c>
       <c r="E17" t="n">
-        <v>4.457031345348418</v>
+        <v>4.026852424639165</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>108.7</v>
       </c>
       <c r="C18" t="n">
-        <v>111.2870814034943</v>
+        <v>111.2396678022242</v>
       </c>
       <c r="D18" t="n">
-        <v>2.587081403494309</v>
+        <v>2.539667802224187</v>
       </c>
       <c r="E18" t="n">
-        <v>6.692990188306086</v>
+        <v>6.449912545654233</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>112.7</v>
       </c>
       <c r="C19" t="n">
-        <v>114.8056331820481</v>
+        <v>114.7569855232158</v>
       </c>
       <c r="D19" t="n">
-        <v>2.105633182048095</v>
+        <v>2.056985523215829</v>
       </c>
       <c r="E19" t="n">
-        <v>4.433691097341986</v>
+        <v>4.231189442719497</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>117.2</v>
       </c>
       <c r="C20" t="n">
-        <v>119.0324454726534</v>
+        <v>118.9667609482376</v>
       </c>
       <c r="D20" t="n">
-        <v>1.83244547265339</v>
+        <v>1.766760948237604</v>
       </c>
       <c r="E20" t="n">
-        <v>3.357856410247906</v>
+        <v>3.121444248217436</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>123.1</v>
       </c>
       <c r="C21" t="n">
-        <v>125.7961251696884</v>
+        <v>125.7434351886203</v>
       </c>
       <c r="D21" t="n">
-        <v>2.696125169688429</v>
+        <v>2.643435188620273</v>
       </c>
       <c r="E21" t="n">
-        <v>7.26909093062746</v>
+        <v>6.987749596435901</v>
       </c>
     </row>
     <row r="22">
@@ -808,11 +808,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>37.79452081031386</v>
+        <v>36.66149407966246</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>91.67773389787513</v>
+        <v>86.45593261749521</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>4.583886694893756</v>
+        <v>4.322796630874761</v>
       </c>
     </row>
   </sheetData>
